--- a/InputData/trans/BNVFE/BAU New Veh Fuel Economy.xlsx
+++ b/InputData/trans/BNVFE/BAU New Veh Fuel Economy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-southkorea\InputData\trans\BNVFE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\South Korea\eps-southkorea\InputData\trans\BNVFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD3FF16-BB8B-4BA6-8B03-56BF4720B6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC9277A-34E6-401E-A0D6-28BD7AEB197B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9F7C64E4-EC04-4C16-8383-3C9CBB105721}"/>
+    <workbookView xWindow="11830" yWindow="230" windowWidth="13750" windowHeight="13590" firstSheet="14" activeTab="17" xr2:uid="{9F7C64E4-EC04-4C16-8383-3C9CBB105721}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -30,19 +30,20 @@
     <sheet name="US-motorbikes-frgt" sheetId="21" r:id="rId15"/>
     <sheet name="Calibration" sheetId="4" r:id="rId16"/>
     <sheet name="CAGR" sheetId="9" r:id="rId17"/>
-    <sheet name="Result&gt;&gt;" sheetId="30" r:id="rId18"/>
-    <sheet name="BNVFE-LDVs-psgr" sheetId="23" r:id="rId19"/>
-    <sheet name="BNVFE-LDVs-frgt" sheetId="22" r:id="rId20"/>
-    <sheet name="BNVFE-HDVs-psgr" sheetId="27" r:id="rId21"/>
-    <sheet name="BNVFE-HDVs-frgt" sheetId="28" r:id="rId22"/>
-    <sheet name="BNVFE-aircraft-psgr" sheetId="29" r:id="rId23"/>
-    <sheet name="BNVFE-aircraft-frgt" sheetId="26" r:id="rId24"/>
-    <sheet name="BNVFE-rail-psgr" sheetId="13" r:id="rId25"/>
-    <sheet name="BNVFE-rail-frgt" sheetId="12" r:id="rId26"/>
-    <sheet name="BNVFE-ships-psgr" sheetId="8" r:id="rId27"/>
-    <sheet name="BNVFE-ships-frgt" sheetId="7" r:id="rId28"/>
-    <sheet name="BNVFE-motorbikes-psgr" sheetId="24" r:id="rId29"/>
-    <sheet name="BNVFE-motorbikes-frgt" sheetId="25" r:id="rId30"/>
+    <sheet name="SK_fuel econ" sheetId="31" r:id="rId18"/>
+    <sheet name="Result&gt;&gt;" sheetId="30" r:id="rId19"/>
+    <sheet name="BNVFE-LDVs-psgr" sheetId="23" r:id="rId20"/>
+    <sheet name="BNVFE-LDVs-frgt" sheetId="22" r:id="rId21"/>
+    <sheet name="BNVFE-HDVs-psgr" sheetId="27" r:id="rId22"/>
+    <sheet name="BNVFE-HDVs-frgt" sheetId="28" r:id="rId23"/>
+    <sheet name="BNVFE-aircraft-psgr" sheetId="29" r:id="rId24"/>
+    <sheet name="BNVFE-aircraft-frgt" sheetId="26" r:id="rId25"/>
+    <sheet name="BNVFE-rail-psgr" sheetId="13" r:id="rId26"/>
+    <sheet name="BNVFE-rail-frgt" sheetId="12" r:id="rId27"/>
+    <sheet name="BNVFE-ships-psgr" sheetId="8" r:id="rId28"/>
+    <sheet name="BNVFE-ships-frgt" sheetId="7" r:id="rId29"/>
+    <sheet name="BNVFE-motorbikes-psgr" sheetId="24" r:id="rId30"/>
+    <sheet name="BNVFE-motorbikes-frgt" sheetId="25" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="72">
   <si>
     <t>battery electric vehicle</t>
   </si>
@@ -272,15 +273,65 @@
     <t>We applied the ratio of fuel shares in the US data to the KR data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://theicct.org/sites/default/files/publications/S.Korea%20FE%20GHG%20Policy%20Update_vFinal.pdf</t>
+  </si>
+  <si>
+    <t>passenger vehicles fuel economy</t>
+  </si>
+  <si>
+    <t>passenger vehicles</t>
+  </si>
+  <si>
+    <t>light trucks</t>
+  </si>
+  <si>
+    <t>km/L</t>
+  </si>
+  <si>
+    <t>btus per liter gasoline</t>
+  </si>
+  <si>
+    <t>Conversion factor</t>
+  </si>
+  <si>
+    <t>km per mile</t>
+  </si>
+  <si>
+    <t>Convert</t>
+  </si>
+  <si>
+    <t>miles/L</t>
+  </si>
+  <si>
+    <t>miles/btu</t>
+  </si>
+  <si>
+    <t>thing*miles/btu</t>
+  </si>
+  <si>
+    <t>AVLO-psgr-ldvs</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>US Fuel economy</t>
+  </si>
+  <si>
+    <t>Trend</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,8 +380,33 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,8 +443,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -394,16 +494,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -488,8 +604,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -810,11 +960,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47BDC44-2269-493E-A648-3F924433C76C}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="34" t="s">
@@ -869,9 +1019,9 @@
       <selection activeCell="B1" sqref="B1:AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -1672,9 +1822,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -2475,9 +2625,9 @@
       <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -3278,9 +3428,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -4079,9 +4229,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -4880,9 +5030,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -5767,16 +5917,16 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6587,10 +6737,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
   </cols>
@@ -7491,6 +7641,1215 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952C2BA1-F2C9-4C84-8D6D-BA9B17307A46}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:AG40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="41">
+        <v>32415.35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1.60934</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1.4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" s="38">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11">
+        <v>24.1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12">
+        <v>14.1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="38">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="44">
+        <f>C11/$A$5</f>
+        <v>14.975082953260344</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="44">
+        <f>C12/$A$5</f>
+        <v>8.7613555867622743</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="C18" s="38">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="B19" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="45">
+        <f>C15/$A$4</f>
+        <v>4.6197505050108497E-4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="B20" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="45">
+        <f>C16/$A$4</f>
+        <v>2.7028415817698326E-4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="C22" s="38">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="B23" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="45">
+        <f>C19*$A$6</f>
+        <v>6.4676507070151896E-4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
+      <c r="B24" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="45">
+        <f>C20*$A$6</f>
+        <v>3.7839782144777654E-4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" ht="15" thickBot="1"/>
+    <row r="26" spans="1:33" ht="15" thickBot="1">
+      <c r="B26" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="46">
+        <f>AVERAGE(C23:C24)</f>
+        <v>5.1258144607464772E-4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
+      <c r="A29" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="22"/>
+    </row>
+    <row r="30" spans="1:33">
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>2020</v>
+      </c>
+      <c r="D30">
+        <v>2021</v>
+      </c>
+      <c r="E30">
+        <v>2022</v>
+      </c>
+      <c r="F30">
+        <v>2023</v>
+      </c>
+      <c r="G30">
+        <v>2024</v>
+      </c>
+      <c r="H30">
+        <v>2025</v>
+      </c>
+      <c r="I30">
+        <v>2026</v>
+      </c>
+      <c r="J30">
+        <v>2027</v>
+      </c>
+      <c r="K30">
+        <v>2028</v>
+      </c>
+      <c r="L30">
+        <v>2029</v>
+      </c>
+      <c r="M30">
+        <v>2030</v>
+      </c>
+      <c r="N30">
+        <v>2031</v>
+      </c>
+      <c r="O30">
+        <v>2032</v>
+      </c>
+      <c r="P30">
+        <v>2033</v>
+      </c>
+      <c r="Q30">
+        <v>2034</v>
+      </c>
+      <c r="R30">
+        <v>2035</v>
+      </c>
+      <c r="S30">
+        <v>2036</v>
+      </c>
+      <c r="T30">
+        <v>2037</v>
+      </c>
+      <c r="U30">
+        <v>2038</v>
+      </c>
+      <c r="V30">
+        <v>2039</v>
+      </c>
+      <c r="W30">
+        <v>2040</v>
+      </c>
+      <c r="X30">
+        <v>2041</v>
+      </c>
+      <c r="Y30">
+        <v>2042</v>
+      </c>
+      <c r="Z30">
+        <v>2043</v>
+      </c>
+      <c r="AA30">
+        <v>2044</v>
+      </c>
+      <c r="AB30">
+        <v>2045</v>
+      </c>
+      <c r="AC30">
+        <v>2046</v>
+      </c>
+      <c r="AD30">
+        <v>2047</v>
+      </c>
+      <c r="AE30">
+        <v>2048</v>
+      </c>
+      <c r="AF30">
+        <v>2049</v>
+      </c>
+      <c r="AG30">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1.3016014821008825E-3</v>
+      </c>
+      <c r="D31">
+        <v>1.2926576980307788E-3</v>
+      </c>
+      <c r="E31">
+        <v>1.2869318658566659E-3</v>
+      </c>
+      <c r="F31">
+        <v>1.2796983920849219E-3</v>
+      </c>
+      <c r="G31">
+        <v>1.2723109001949813E-3</v>
+      </c>
+      <c r="H31">
+        <v>1.2688722771223024E-3</v>
+      </c>
+      <c r="I31">
+        <v>1.265614096179496E-3</v>
+      </c>
+      <c r="J31">
+        <v>1.2602292006612041E-3</v>
+      </c>
+      <c r="K31">
+        <v>1.2562225179555552E-3</v>
+      </c>
+      <c r="L31">
+        <v>1.252664288663584E-3</v>
+      </c>
+      <c r="M31">
+        <v>1.2501277882015535E-3</v>
+      </c>
+      <c r="N31">
+        <v>1.2487082688849278E-3</v>
+      </c>
+      <c r="O31">
+        <v>1.2467654435390108E-3</v>
+      </c>
+      <c r="P31">
+        <v>1.2459379766549955E-3</v>
+      </c>
+      <c r="Q31">
+        <v>1.2454911060033728E-3</v>
+      </c>
+      <c r="R31">
+        <v>1.2451425075326549E-3</v>
+      </c>
+      <c r="S31">
+        <v>1.2441678168462235E-3</v>
+      </c>
+      <c r="T31">
+        <v>1.2437110831363233E-3</v>
+      </c>
+      <c r="U31">
+        <v>1.2434472289246487E-3</v>
+      </c>
+      <c r="V31">
+        <v>1.2431449346539255E-3</v>
+      </c>
+      <c r="W31">
+        <v>1.242749474488683E-3</v>
+      </c>
+      <c r="X31">
+        <v>1.2426414751633898E-3</v>
+      </c>
+      <c r="Y31">
+        <v>1.2425270452057901E-3</v>
+      </c>
+      <c r="Z31">
+        <v>1.2423665768196443E-3</v>
+      </c>
+      <c r="AA31">
+        <v>1.2423661582493899E-3</v>
+      </c>
+      <c r="AB31">
+        <v>1.2424552878090294E-3</v>
+      </c>
+      <c r="AC31">
+        <v>1.2425304264301077E-3</v>
+      </c>
+      <c r="AD31">
+        <v>1.2424094170501326E-3</v>
+      </c>
+      <c r="AE31">
+        <v>1.2423079259541866E-3</v>
+      </c>
+      <c r="AF31">
+        <v>1.2421595174498235E-3</v>
+      </c>
+      <c r="AG31">
+        <v>1.242184730573649E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>3.8029529805498928E-4</v>
+      </c>
+      <c r="D32">
+        <v>3.9476635103339935E-4</v>
+      </c>
+      <c r="E32">
+        <v>4.0317709826518853E-4</v>
+      </c>
+      <c r="F32">
+        <v>4.0861194678683542E-4</v>
+      </c>
+      <c r="G32">
+        <v>4.1215478728194431E-4</v>
+      </c>
+      <c r="H32">
+        <v>4.161380472574127E-4</v>
+      </c>
+      <c r="I32">
+        <v>4.1864713672164384E-4</v>
+      </c>
+      <c r="J32">
+        <v>4.1871977044755321E-4</v>
+      </c>
+      <c r="K32">
+        <v>4.1845993448607482E-4</v>
+      </c>
+      <c r="L32">
+        <v>4.1824574080425933E-4</v>
+      </c>
+      <c r="M32">
+        <v>4.1892239620751885E-4</v>
+      </c>
+      <c r="N32">
+        <v>4.1874050147763098E-4</v>
+      </c>
+      <c r="O32">
+        <v>4.1850498686080801E-4</v>
+      </c>
+      <c r="P32">
+        <v>4.1826480772119918E-4</v>
+      </c>
+      <c r="Q32">
+        <v>4.1829175912415644E-4</v>
+      </c>
+      <c r="R32">
+        <v>4.1761857347733379E-4</v>
+      </c>
+      <c r="S32">
+        <v>4.1687945245925354E-4</v>
+      </c>
+      <c r="T32">
+        <v>4.164113300533476E-4</v>
+      </c>
+      <c r="U32">
+        <v>4.1613449901969674E-4</v>
+      </c>
+      <c r="V32">
+        <v>4.1551323434343832E-4</v>
+      </c>
+      <c r="W32">
+        <v>4.1503634236097445E-4</v>
+      </c>
+      <c r="X32">
+        <v>4.1461933319641856E-4</v>
+      </c>
+      <c r="Y32">
+        <v>4.1413077690561246E-4</v>
+      </c>
+      <c r="Z32">
+        <v>4.1366186353318095E-4</v>
+      </c>
+      <c r="AA32">
+        <v>4.1331258589589651E-4</v>
+      </c>
+      <c r="AB32">
+        <v>4.1306480490411649E-4</v>
+      </c>
+      <c r="AC32">
+        <v>4.1264228513673742E-4</v>
+      </c>
+      <c r="AD32">
+        <v>4.1222664654626295E-4</v>
+      </c>
+      <c r="AE32">
+        <v>4.1170488758498282E-4</v>
+      </c>
+      <c r="AF32">
+        <v>4.1134544874802168E-4</v>
+      </c>
+      <c r="AG32">
+        <v>4.1101089728435994E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33">
+      <c r="B33" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="48">
+        <v>4.010435677007162E-4</v>
+      </c>
+      <c r="D33" s="48">
+        <v>4.1543936179917892E-4</v>
+      </c>
+      <c r="E33" s="48">
+        <v>4.232456921304615E-4</v>
+      </c>
+      <c r="F33" s="48">
+        <v>4.284224989356039E-4</v>
+      </c>
+      <c r="G33" s="48">
+        <v>4.3223887309206766E-4</v>
+      </c>
+      <c r="H33" s="48">
+        <v>4.3661930301858122E-4</v>
+      </c>
+      <c r="I33" s="48">
+        <v>4.4073837767711228E-4</v>
+      </c>
+      <c r="J33" s="48">
+        <v>4.4130433819121803E-4</v>
+      </c>
+      <c r="K33" s="48">
+        <v>4.4139330713525239E-4</v>
+      </c>
+      <c r="L33" s="48">
+        <v>4.4143859386227608E-4</v>
+      </c>
+      <c r="M33" s="48">
+        <v>4.4252278985937798E-4</v>
+      </c>
+      <c r="N33" s="48">
+        <v>4.4258101673758966E-4</v>
+      </c>
+      <c r="O33" s="48">
+        <v>4.4262644410952699E-4</v>
+      </c>
+      <c r="P33" s="48">
+        <v>4.4263525674443374E-4</v>
+      </c>
+      <c r="Q33" s="48">
+        <v>4.428907913418545E-4</v>
+      </c>
+      <c r="R33" s="48">
+        <v>4.4235185104972023E-4</v>
+      </c>
+      <c r="S33" s="48">
+        <v>4.4180682000362565E-4</v>
+      </c>
+      <c r="T33" s="48">
+        <v>4.415169210975881E-4</v>
+      </c>
+      <c r="U33" s="48">
+        <v>4.4141525513386555E-4</v>
+      </c>
+      <c r="V33" s="48">
+        <v>4.4094858868260617E-4</v>
+      </c>
+      <c r="W33" s="48">
+        <v>4.406528424788466E-4</v>
+      </c>
+      <c r="X33" s="48">
+        <v>4.4046477188487546E-4</v>
+      </c>
+      <c r="Y33" s="48">
+        <v>4.4016736396697124E-4</v>
+      </c>
+      <c r="Z33" s="48">
+        <v>4.3991921468742256E-4</v>
+      </c>
+      <c r="AA33" s="48">
+        <v>4.3980677282836695E-4</v>
+      </c>
+      <c r="AB33" s="48">
+        <v>4.3981133028276362E-4</v>
+      </c>
+      <c r="AC33" s="48">
+        <v>4.3960459654073496E-4</v>
+      </c>
+      <c r="AD33" s="48">
+        <v>4.3945697770705547E-4</v>
+      </c>
+      <c r="AE33" s="48">
+        <v>4.3919624527100954E-4</v>
+      </c>
+      <c r="AF33" s="48">
+        <v>4.3913823303573507E-4</v>
+      </c>
+      <c r="AG33" s="48">
+        <v>4.3909651675542918E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33">
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>4.2164836790723349E-4</v>
+      </c>
+      <c r="D34">
+        <v>4.3038372468941308E-4</v>
+      </c>
+      <c r="E34">
+        <v>4.3420465633630295E-4</v>
+      </c>
+      <c r="F34">
+        <v>4.3755646869858035E-4</v>
+      </c>
+      <c r="G34">
+        <v>4.3967943886681334E-4</v>
+      </c>
+      <c r="H34">
+        <v>4.4460624002269991E-4</v>
+      </c>
+      <c r="I34">
+        <v>4.4496012049244393E-4</v>
+      </c>
+      <c r="J34">
+        <v>4.4386794465270786E-4</v>
+      </c>
+      <c r="K34">
+        <v>4.4337540076502162E-4</v>
+      </c>
+      <c r="L34">
+        <v>4.4271108702653624E-4</v>
+      </c>
+      <c r="M34">
+        <v>4.4204868011526002E-4</v>
+      </c>
+      <c r="N34">
+        <v>4.4134700384785902E-4</v>
+      </c>
+      <c r="O34">
+        <v>4.4074150219218516E-4</v>
+      </c>
+      <c r="P34">
+        <v>4.4004989920049426E-4</v>
+      </c>
+      <c r="Q34">
+        <v>4.3959873902550526E-4</v>
+      </c>
+      <c r="R34">
+        <v>4.3896791873294087E-4</v>
+      </c>
+      <c r="S34">
+        <v>4.3853822206515422E-4</v>
+      </c>
+      <c r="T34">
+        <v>4.380679289602619E-4</v>
+      </c>
+      <c r="U34">
+        <v>4.3761382373608021E-4</v>
+      </c>
+      <c r="V34">
+        <v>4.3728428606956427E-4</v>
+      </c>
+      <c r="W34">
+        <v>4.3676208341619235E-4</v>
+      </c>
+      <c r="X34">
+        <v>4.3641079058356913E-4</v>
+      </c>
+      <c r="Y34">
+        <v>4.3601813064876686E-4</v>
+      </c>
+      <c r="Z34">
+        <v>4.3568341275915397E-4</v>
+      </c>
+      <c r="AA34">
+        <v>4.3535955435881782E-4</v>
+      </c>
+      <c r="AB34">
+        <v>4.3509879831850481E-4</v>
+      </c>
+      <c r="AC34">
+        <v>4.3470212020737582E-4</v>
+      </c>
+      <c r="AD34">
+        <v>4.3438066023618842E-4</v>
+      </c>
+      <c r="AE34">
+        <v>4.3404466716966903E-4</v>
+      </c>
+      <c r="AF34">
+        <v>4.3370047683290603E-4</v>
+      </c>
+      <c r="AG34">
+        <v>4.3334687418764364E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33">
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>6.5738318568648571E-4</v>
+      </c>
+      <c r="D35">
+        <v>6.7868209237387732E-4</v>
+      </c>
+      <c r="E35">
+        <v>6.8605104499600824E-4</v>
+      </c>
+      <c r="F35">
+        <v>6.8995200477364748E-4</v>
+      </c>
+      <c r="G35">
+        <v>7.0255070116778152E-4</v>
+      </c>
+      <c r="H35">
+        <v>7.3075494105914415E-4</v>
+      </c>
+      <c r="I35">
+        <v>7.6511494750975708E-4</v>
+      </c>
+      <c r="J35">
+        <v>7.6729530817545215E-4</v>
+      </c>
+      <c r="K35">
+        <v>7.6615763729175437E-4</v>
+      </c>
+      <c r="L35">
+        <v>7.6497534983816374E-4</v>
+      </c>
+      <c r="M35">
+        <v>7.6434508106930723E-4</v>
+      </c>
+      <c r="N35">
+        <v>7.6297468642330408E-4</v>
+      </c>
+      <c r="O35">
+        <v>7.6220701719009081E-4</v>
+      </c>
+      <c r="P35">
+        <v>7.6135115263870209E-4</v>
+      </c>
+      <c r="Q35">
+        <v>7.6059039236971756E-4</v>
+      </c>
+      <c r="R35">
+        <v>7.5941521982376113E-4</v>
+      </c>
+      <c r="S35">
+        <v>7.5865921051893645E-4</v>
+      </c>
+      <c r="T35">
+        <v>7.5779553890121924E-4</v>
+      </c>
+      <c r="U35">
+        <v>7.5675471415846706E-4</v>
+      </c>
+      <c r="V35">
+        <v>7.5542246426100047E-4</v>
+      </c>
+      <c r="W35">
+        <v>7.5410270573479155E-4</v>
+      </c>
+      <c r="X35">
+        <v>7.5263393803100167E-4</v>
+      </c>
+      <c r="Y35">
+        <v>7.5087688624492623E-4</v>
+      </c>
+      <c r="Z35">
+        <v>7.4906248631128583E-4</v>
+      </c>
+      <c r="AA35">
+        <v>7.470071968170176E-4</v>
+      </c>
+      <c r="AB35">
+        <v>7.4466971736164859E-4</v>
+      </c>
+      <c r="AC35">
+        <v>7.4187742730834057E-4</v>
+      </c>
+      <c r="AD35">
+        <v>7.3887113076972523E-4</v>
+      </c>
+      <c r="AE35">
+        <v>7.3528955607294266E-4</v>
+      </c>
+      <c r="AF35">
+        <v>7.3158063579575828E-4</v>
+      </c>
+      <c r="AG35">
+        <v>7.2734242308217191E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33">
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>3.6368321172053488E-4</v>
+      </c>
+      <c r="D36">
+        <v>3.7519786349243767E-4</v>
+      </c>
+      <c r="E36">
+        <v>3.8292342231539014E-4</v>
+      </c>
+      <c r="F36">
+        <v>3.8737442480929154E-4</v>
+      </c>
+      <c r="G36">
+        <v>3.9018162646122461E-4</v>
+      </c>
+      <c r="H36">
+        <v>3.9393486543226201E-4</v>
+      </c>
+      <c r="I36">
+        <v>3.958081254319439E-4</v>
+      </c>
+      <c r="J36">
+        <v>3.958068662698271E-4</v>
+      </c>
+      <c r="K36">
+        <v>3.9568870081904033E-4</v>
+      </c>
+      <c r="L36">
+        <v>3.9552372368166668E-4</v>
+      </c>
+      <c r="M36">
+        <v>3.9593709557582721E-4</v>
+      </c>
+      <c r="N36">
+        <v>3.9597127514076109E-4</v>
+      </c>
+      <c r="O36">
+        <v>3.9568311316840501E-4</v>
+      </c>
+      <c r="P36">
+        <v>3.9545023752148126E-4</v>
+      </c>
+      <c r="Q36">
+        <v>3.9533735885442279E-4</v>
+      </c>
+      <c r="R36">
+        <v>3.9487850361981201E-4</v>
+      </c>
+      <c r="S36">
+        <v>3.9428117062173101E-4</v>
+      </c>
+      <c r="T36">
+        <v>3.9378231845382995E-4</v>
+      </c>
+      <c r="U36">
+        <v>3.9349649872249946E-4</v>
+      </c>
+      <c r="V36">
+        <v>3.9297415036491852E-4</v>
+      </c>
+      <c r="W36">
+        <v>3.9250688719174123E-4</v>
+      </c>
+      <c r="X36">
+        <v>3.9211185181415524E-4</v>
+      </c>
+      <c r="Y36">
+        <v>3.9168760952964436E-4</v>
+      </c>
+      <c r="Z36">
+        <v>3.9122731880395569E-4</v>
+      </c>
+      <c r="AA36">
+        <v>3.9085142797907205E-4</v>
+      </c>
+      <c r="AB36">
+        <v>3.9051216876031034E-4</v>
+      </c>
+      <c r="AC36">
+        <v>3.9011492927727893E-4</v>
+      </c>
+      <c r="AD36">
+        <v>3.8968023550283847E-4</v>
+      </c>
+      <c r="AE36">
+        <v>3.8920742031412479E-4</v>
+      </c>
+      <c r="AF36">
+        <v>3.8876188063600889E-4</v>
+      </c>
+      <c r="AG36">
+        <v>3.883715712735463E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:33">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>5.8794415231938754E-4</v>
+      </c>
+      <c r="D37">
+        <v>5.859697075889746E-4</v>
+      </c>
+      <c r="E37">
+        <v>5.8487716230241557E-4</v>
+      </c>
+      <c r="F37">
+        <v>5.8450715864569842E-4</v>
+      </c>
+      <c r="G37">
+        <v>5.8509864619692446E-4</v>
+      </c>
+      <c r="H37">
+        <v>5.8547838832553585E-4</v>
+      </c>
+      <c r="I37">
+        <v>5.8677369900367977E-4</v>
+      </c>
+      <c r="J37">
+        <v>5.8555189724455374E-4</v>
+      </c>
+      <c r="K37">
+        <v>5.848624993596127E-4</v>
+      </c>
+      <c r="L37">
+        <v>5.8392369578135807E-4</v>
+      </c>
+      <c r="M37">
+        <v>5.8323582222320433E-4</v>
+      </c>
+      <c r="N37">
+        <v>5.8232846507614633E-4</v>
+      </c>
+      <c r="O37">
+        <v>5.8140476063791701E-4</v>
+      </c>
+      <c r="P37">
+        <v>5.8053415348023238E-4</v>
+      </c>
+      <c r="Q37">
+        <v>5.7985999357189376E-4</v>
+      </c>
+      <c r="R37">
+        <v>5.790672010289583E-4</v>
+      </c>
+      <c r="S37">
+        <v>5.783038784646057E-4</v>
+      </c>
+      <c r="T37">
+        <v>5.7772941074558763E-4</v>
+      </c>
+      <c r="U37">
+        <v>5.7728789584792482E-4</v>
+      </c>
+      <c r="V37">
+        <v>5.7687866477931793E-4</v>
+      </c>
+      <c r="W37">
+        <v>5.7657581365796442E-4</v>
+      </c>
+      <c r="X37">
+        <v>5.7638685408458411E-4</v>
+      </c>
+      <c r="Y37">
+        <v>5.7622519119671751E-4</v>
+      </c>
+      <c r="Z37">
+        <v>5.7612076801724784E-4</v>
+      </c>
+      <c r="AA37">
+        <v>5.7610601336530144E-4</v>
+      </c>
+      <c r="AB37">
+        <v>5.7616718513728532E-4</v>
+      </c>
+      <c r="AC37">
+        <v>5.7619221096857649E-4</v>
+      </c>
+      <c r="AD37">
+        <v>5.7620061572155568E-4</v>
+      </c>
+      <c r="AE37">
+        <v>5.7622282038993897E-4</v>
+      </c>
+      <c r="AF37">
+        <v>5.7625953419671364E-4</v>
+      </c>
+      <c r="AG37">
+        <v>5.7635527402379559E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:33">
+      <c r="C39">
+        <v>2020</v>
+      </c>
+      <c r="D39">
+        <v>2021</v>
+      </c>
+      <c r="E39">
+        <v>2022</v>
+      </c>
+      <c r="F39">
+        <v>2023</v>
+      </c>
+      <c r="G39">
+        <v>2024</v>
+      </c>
+      <c r="H39">
+        <v>2025</v>
+      </c>
+      <c r="I39">
+        <v>2026</v>
+      </c>
+      <c r="J39">
+        <v>2027</v>
+      </c>
+      <c r="K39">
+        <v>2028</v>
+      </c>
+      <c r="L39">
+        <v>2029</v>
+      </c>
+      <c r="M39">
+        <v>2030</v>
+      </c>
+      <c r="N39">
+        <v>2031</v>
+      </c>
+      <c r="O39">
+        <v>2032</v>
+      </c>
+      <c r="P39">
+        <v>2033</v>
+      </c>
+      <c r="Q39">
+        <v>2034</v>
+      </c>
+      <c r="R39">
+        <v>2035</v>
+      </c>
+      <c r="S39">
+        <v>2036</v>
+      </c>
+      <c r="T39">
+        <v>2037</v>
+      </c>
+      <c r="U39">
+        <v>2038</v>
+      </c>
+      <c r="V39">
+        <v>2039</v>
+      </c>
+      <c r="W39">
+        <v>2040</v>
+      </c>
+      <c r="X39">
+        <v>2041</v>
+      </c>
+      <c r="Y39">
+        <v>2042</v>
+      </c>
+      <c r="Z39">
+        <v>2043</v>
+      </c>
+      <c r="AA39">
+        <v>2044</v>
+      </c>
+      <c r="AB39">
+        <v>2045</v>
+      </c>
+      <c r="AC39">
+        <v>2046</v>
+      </c>
+      <c r="AD39">
+        <v>2047</v>
+      </c>
+      <c r="AE39">
+        <v>2048</v>
+      </c>
+      <c r="AF39">
+        <v>2049</v>
+      </c>
+      <c r="AG39">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="40" spans="2:33">
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <f>D33/$C$33</f>
+        <v>1.0358958359087953</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40:AG40" si="0">E33/$C$33</f>
+        <v>1.0553608790113145</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>1.0682692192069256</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>1.0777853278390723</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>1.0887079065295315</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>1.0989787972513221</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>1.1003900167787928</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>1.1006118603668709</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>1.1007247825794957</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>1.103428219523561</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>1.1035734079342505</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="0"/>
+        <v>1.1036866808442183</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>1.1037086551024198</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="0"/>
+        <v>1.1043458292600452</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="0"/>
+        <v>1.1030019845121437</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="0"/>
+        <v>1.1016429525016831</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="0"/>
+        <v>1.100920091123555</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="0"/>
+        <v>1.1006665875845121</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="0"/>
+        <v>1.099502957273883</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="0"/>
+        <v>1.0987655156900293</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="0"/>
+        <v>1.0982965626656749</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="0"/>
+        <v>1.0975549776064522</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="0"/>
+        <v>1.0969362186996048</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="0"/>
+        <v>1.096655845522944</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="0"/>
+        <v>1.0966672095112078</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="0"/>
+        <v>1.0961517200265767</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="0"/>
+        <v>1.0957836332510531</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="0"/>
+        <v>1.095133498310501</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="0"/>
+        <v>1.0949888451108323</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="0"/>
+        <v>1.0948848257880812</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E698DB74-C519-4F62-B64E-5A171DB8F66A}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -7501,1040 +8860,8 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78970FD1-7C00-4B50-9A91-90B80228BA27}">
-  <sheetPr>
-    <tabColor rgb="FF1F497D"/>
-  </sheetPr>
-  <dimension ref="A1:AG8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="4" max="33" width="9.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33">
-      <c r="A1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2023</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2024</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2025</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2026</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2027</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2028</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2029</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2030</v>
-      </c>
-      <c r="M1" s="1">
-        <v>2031</v>
-      </c>
-      <c r="N1" s="1">
-        <v>2032</v>
-      </c>
-      <c r="O1" s="1">
-        <v>2033</v>
-      </c>
-      <c r="P1" s="1">
-        <v>2034</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>2035</v>
-      </c>
-      <c r="R1" s="1">
-        <v>2036</v>
-      </c>
-      <c r="S1" s="1">
-        <v>2037</v>
-      </c>
-      <c r="T1" s="1">
-        <v>2038</v>
-      </c>
-      <c r="U1" s="1">
-        <v>2039</v>
-      </c>
-      <c r="V1" s="1">
-        <v>2040</v>
-      </c>
-      <c r="W1" s="1">
-        <v>2041</v>
-      </c>
-      <c r="X1" s="1">
-        <v>2042</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>2043</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>2044</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>2045</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>2046</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>2047</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>2048</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>2049</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26">
-        <f>IFERROR(INDEX('SYFAFE psgr'!$B$2:$H$2,,MATCH($A2,'SYFAFE psgr'!$B$1:$H$1,0))*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>3.0350918316418964E-4</v>
-      </c>
-      <c r="C2" s="26">
-        <f>IFERROR(B2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>3.0305207372962099E-4</v>
-      </c>
-      <c r="D2" s="26">
-        <f>IFERROR(C2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>3.0259565273891751E-4</v>
-      </c>
-      <c r="E2" s="26">
-        <f>IFERROR(D2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>3.0213991915522691E-4</v>
-      </c>
-      <c r="F2" s="26">
-        <f>IFERROR(E2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>3.0168487194325852E-4</v>
-      </c>
-      <c r="G2" s="26">
-        <f>IFERROR(F2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>3.0123051006928091E-4</v>
-      </c>
-      <c r="H2" s="26">
-        <f>IFERROR(G2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>3.0077683250111947E-4</v>
-      </c>
-      <c r="I2" s="26">
-        <f>IFERROR(H2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>3.0032383820815416E-4</v>
-      </c>
-      <c r="J2" s="26">
-        <f>IFERROR(I2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.9987152616131716E-4</v>
-      </c>
-      <c r="K2" s="26">
-        <f>IFERROR(J2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.9941989533309053E-4</v>
-      </c>
-      <c r="L2" s="26">
-        <f>IFERROR(K2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.9896894469750375E-4</v>
-      </c>
-      <c r="M2" s="26">
-        <f>IFERROR(L2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.9851867323013159E-4</v>
-      </c>
-      <c r="N2" s="26">
-        <f>IFERROR(M2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.9806907990809168E-4</v>
-      </c>
-      <c r="O2" s="26">
-        <f>IFERROR(N2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.9762016371004217E-4</v>
-      </c>
-      <c r="P2" s="26">
-        <f>IFERROR(O2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.9717192361617941E-4</v>
-      </c>
-      <c r="Q2" s="26">
-        <f>IFERROR(P2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.9672435860823572E-4</v>
-      </c>
-      <c r="R2" s="26">
-        <f>IFERROR(Q2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.9627746766947694E-4</v>
-      </c>
-      <c r="S2" s="26">
-        <f>IFERROR(R2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.9583124978470023E-4</v>
-      </c>
-      <c r="T2" s="26">
-        <f>IFERROR(S2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.9538570394023179E-4</v>
-      </c>
-      <c r="U2" s="26">
-        <f>IFERROR(T2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.949408291239244E-4</v>
-      </c>
-      <c r="V2" s="26">
-        <f>IFERROR(U2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.9449662432515521E-4</v>
-      </c>
-      <c r="W2" s="26">
-        <f>IFERROR(V2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.9405308853482353E-4</v>
-      </c>
-      <c r="X2" s="26">
-        <f>IFERROR(W2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.9361022074534841E-4</v>
-      </c>
-      <c r="Y2" s="26">
-        <f>IFERROR(X2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.9316801995066645E-4</v>
-      </c>
-      <c r="Z2" s="26">
-        <f>IFERROR(Y2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.9272648514622939E-4</v>
-      </c>
-      <c r="AA2" s="26">
-        <f>IFERROR(Z2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.9228561532900187E-4</v>
-      </c>
-      <c r="AB2" s="26">
-        <f>IFERROR(AA2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.9184540949745932E-4</v>
-      </c>
-      <c r="AC2" s="26">
-        <f>IFERROR(AB2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.9140586665158546E-4</v>
-      </c>
-      <c r="AD2" s="26">
-        <f>IFERROR(AC2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.9096698579287011E-4</v>
-      </c>
-      <c r="AE2" s="26">
-        <f>IFERROR(AD2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.9052876592430696E-4</v>
-      </c>
-      <c r="AF2" s="26">
-        <f>IFERROR(AE2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.9009120605039124E-4</v>
-      </c>
-      <c r="AG2" s="26"/>
-    </row>
-    <row r="3" spans="1:33">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="26">
-        <f>IFERROR(INDEX('SYFAFE psgr'!$B$2:$H$2,,MATCH($A3,'SYFAFE psgr'!$B$1:$H$1,0))*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4017302249301569E-4</v>
-      </c>
-      <c r="C3" s="26">
-        <f>IFERROR(B3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.407755396203476E-4</v>
-      </c>
-      <c r="D3" s="26">
-        <f>IFERROR(C3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4137956827001853E-4</v>
-      </c>
-      <c r="E3" s="26">
-        <f>IFERROR(D3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4198511223395353E-4</v>
-      </c>
-      <c r="F3" s="26">
-        <f>IFERROR(E3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4259217531359036E-4</v>
-      </c>
-      <c r="G3" s="26">
-        <f>IFERROR(F3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4320076131990336E-4</v>
-      </c>
-      <c r="H3" s="26">
-        <f>IFERROR(G3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4381087407342739E-4</v>
-      </c>
-      <c r="I3" s="26">
-        <f>IFERROR(H3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4442251740428185E-4</v>
-      </c>
-      <c r="J3" s="26">
-        <f>IFERROR(I3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.450356951521946E-4</v>
-      </c>
-      <c r="K3" s="26">
-        <f>IFERROR(J3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4565041116652621E-4</v>
-      </c>
-      <c r="L3" s="26">
-        <f>IFERROR(K3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4626666930629401E-4</v>
-      </c>
-      <c r="M3" s="26">
-        <f>IFERROR(L3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4688447344019645E-4</v>
-      </c>
-      <c r="N3" s="26">
-        <f>IFERROR(M3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4750382744663724E-4</v>
-      </c>
-      <c r="O3" s="26">
-        <f>IFERROR(N3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4812473521374976E-4</v>
-      </c>
-      <c r="P3" s="26">
-        <f>IFERROR(O3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4874720063942148E-4</v>
-      </c>
-      <c r="Q3" s="26">
-        <f>IFERROR(P3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4937122763131844E-4</v>
-      </c>
-      <c r="R3" s="26">
-        <f>IFERROR(Q3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4999682010690979E-4</v>
-      </c>
-      <c r="S3" s="26">
-        <f>IFERROR(R3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.5062398199349222E-4</v>
-      </c>
-      <c r="T3" s="26">
-        <f>IFERROR(S3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.512527172282149E-4</v>
-      </c>
-      <c r="U3" s="26">
-        <f>IFERROR(T3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.5188302975810402E-4</v>
-      </c>
-      <c r="V3" s="26">
-        <f>IFERROR(U3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.5251492354008752E-4</v>
-      </c>
-      <c r="W3" s="26">
-        <f>IFERROR(V3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.5314840254102002E-4</v>
-      </c>
-      <c r="X3" s="26">
-        <f>IFERROR(W3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.5378347073770776E-4</v>
-      </c>
-      <c r="Y3" s="26">
-        <f>IFERROR(X3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.5442013211693343E-4</v>
-      </c>
-      <c r="Z3" s="26">
-        <f>IFERROR(Y3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.550583906754814E-4</v>
-      </c>
-      <c r="AA3" s="26">
-        <f>IFERROR(Z3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.5569825042016258E-4</v>
-      </c>
-      <c r="AB3" s="26">
-        <f>IFERROR(AA3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.5633971536783979E-4</v>
-      </c>
-      <c r="AC3" s="26">
-        <f>IFERROR(AB3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.5698278954545273E-4</v>
-      </c>
-      <c r="AD3" s="26">
-        <f>IFERROR(AC3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.5762747699004351E-4</v>
-      </c>
-      <c r="AE3" s="26">
-        <f>IFERROR(AD3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.5827378174878186E-4</v>
-      </c>
-      <c r="AF3" s="26">
-        <f>IFERROR(AE3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.5892170787899057E-4</v>
-      </c>
-      <c r="AG3" s="26"/>
-    </row>
-    <row r="4" spans="1:33">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="26">
-        <f>IFERROR(INDEX('SYFAFE psgr'!$B$2:$H$2,,MATCH($A4,'SYFAFE psgr'!$B$1:$H$1,0))*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4909266672920225E-4</v>
-      </c>
-      <c r="C4" s="26">
-        <f>IFERROR(B4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.498221212792795E-4</v>
-      </c>
-      <c r="D4" s="26">
-        <f>IFERROR(C4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.5055371199798676E-4</v>
-      </c>
-      <c r="E4" s="26">
-        <f>IFERROR(D4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.5128744514097957E-4</v>
-      </c>
-      <c r="F4" s="26">
-        <f>IFERROR(E4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.5202332698223283E-4</v>
-      </c>
-      <c r="G4" s="26">
-        <f>IFERROR(F4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.5276136381409452E-4</v>
-      </c>
-      <c r="H4" s="26">
-        <f>IFERROR(G4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.535015619473393E-4</v>
-      </c>
-      <c r="I4" s="26">
-        <f>IFERROR(H4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.542439277112227E-4</v>
-      </c>
-      <c r="J4" s="26">
-        <f>IFERROR(I4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.5498846745353507E-4</v>
-      </c>
-      <c r="K4" s="26">
-        <f>IFERROR(J4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.5573518754065595E-4</v>
-      </c>
-      <c r="L4" s="26">
-        <f>IFERROR(K4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.564840943576085E-4</v>
-      </c>
-      <c r="M4" s="26">
-        <f>IFERROR(L4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.5723519430811406E-4</v>
-      </c>
-      <c r="N4" s="26">
-        <f>IFERROR(M4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.579884938146469E-4</v>
-      </c>
-      <c r="O4" s="26">
-        <f>IFERROR(N4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.587439993184892E-4</v>
-      </c>
-      <c r="P4" s="26">
-        <f>IFERROR(O4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.5950171727978611E-4</v>
-      </c>
-      <c r="Q4" s="26">
-        <f>IFERROR(P4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.6026165417760089E-4</v>
-      </c>
-      <c r="R4" s="26">
-        <f>IFERROR(Q4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.6102381650997046E-4</v>
-      </c>
-      <c r="S4" s="26">
-        <f>IFERROR(R4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.6178821079396084E-4</v>
-      </c>
-      <c r="T4" s="26">
-        <f>IFERROR(S4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.6255484356572299E-4</v>
-      </c>
-      <c r="U4" s="26">
-        <f>IFERROR(T4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.633237213805486E-4</v>
-      </c>
-      <c r="V4" s="26">
-        <f>IFERROR(U4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.6409485081292622E-4</v>
-      </c>
-      <c r="W4" s="26">
-        <f>IFERROR(V4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.6486823845659738E-4</v>
-      </c>
-      <c r="X4" s="26">
-        <f>IFERROR(W4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.6564389092461303E-4</v>
-      </c>
-      <c r="Y4" s="26">
-        <f>IFERROR(X4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.6642181484939014E-4</v>
-      </c>
-      <c r="Z4" s="26">
-        <f>IFERROR(Y4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.6720201688276837E-4</v>
-      </c>
-      <c r="AA4" s="26">
-        <f>IFERROR(Z4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.6798450369606687E-4</v>
-      </c>
-      <c r="AB4" s="26">
-        <f>IFERROR(AA4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.6876928198014141E-4</v>
-      </c>
-      <c r="AC4" s="26">
-        <f>IFERROR(AB4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.6955635844544157E-4</v>
-      </c>
-      <c r="AD4" s="26">
-        <f>IFERROR(AC4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.7034573982206815E-4</v>
-      </c>
-      <c r="AE4" s="26">
-        <f>IFERROR(AD4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.7113743285983068E-4</v>
-      </c>
-      <c r="AF4" s="26">
-        <f>IFERROR(AE4*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A4,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.719314443283051E-4</v>
-      </c>
-      <c r="AG4" s="26"/>
-    </row>
-    <row r="5" spans="1:33">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="26">
-        <f>IFERROR(INDEX('SYFAFE psgr'!$B$2:$H$2,,MATCH($A5,'SYFAFE psgr'!$B$1:$H$1,0))*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.3908613713188558E-4</v>
-      </c>
-      <c r="C5" s="26">
-        <f>IFERROR(B5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.3929729546604998E-4</v>
-      </c>
-      <c r="D5" s="26">
-        <f>IFERROR(C5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.3950864029300989E-4</v>
-      </c>
-      <c r="E5" s="26">
-        <f>IFERROR(D5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.397201717774738E-4</v>
-      </c>
-      <c r="F5" s="26">
-        <f>IFERROR(E5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.3993189008429563E-4</v>
-      </c>
-      <c r="G5" s="26">
-        <f>IFERROR(F5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.401437953784749E-4</v>
-      </c>
-      <c r="H5" s="26">
-        <f>IFERROR(G5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4035588782515683E-4</v>
-      </c>
-      <c r="I5" s="26">
-        <f>IFERROR(H5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4056816758963255E-4</v>
-      </c>
-      <c r="J5" s="26">
-        <f>IFERROR(I5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4078063483733912E-4</v>
-      </c>
-      <c r="K5" s="26">
-        <f>IFERROR(J5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4099328973385974E-4</v>
-      </c>
-      <c r="L5" s="26">
-        <f>IFERROR(K5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4120613244492386E-4</v>
-      </c>
-      <c r="M5" s="26">
-        <f>IFERROR(L5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4141916313640728E-4</v>
-      </c>
-      <c r="N5" s="26">
-        <f>IFERROR(M5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4163238197433232E-4</v>
-      </c>
-      <c r="O5" s="26">
-        <f>IFERROR(N5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4184578912486791E-4</v>
-      </c>
-      <c r="P5" s="26">
-        <f>IFERROR(O5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4205938475432972E-4</v>
-      </c>
-      <c r="Q5" s="26">
-        <f>IFERROR(P5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4227316902918037E-4</v>
-      </c>
-      <c r="R5" s="26">
-        <f>IFERROR(Q5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4248714211602945E-4</v>
-      </c>
-      <c r="S5" s="26">
-        <f>IFERROR(R5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4270130418163369E-4</v>
-      </c>
-      <c r="T5" s="26">
-        <f>IFERROR(S5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4291565539289714E-4</v>
-      </c>
-      <c r="U5" s="26">
-        <f>IFERROR(T5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4313019591687123E-4</v>
-      </c>
-      <c r="V5" s="26">
-        <f>IFERROR(U5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4334492592075494E-4</v>
-      </c>
-      <c r="W5" s="26">
-        <f>IFERROR(V5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4355984557189488E-4</v>
-      </c>
-      <c r="X5" s="26">
-        <f>IFERROR(W5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4377495503778552E-4</v>
-      </c>
-      <c r="Y5" s="26">
-        <f>IFERROR(X5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4399025448606923E-4</v>
-      </c>
-      <c r="Z5" s="26">
-        <f>IFERROR(Y5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4420574408453644E-4</v>
-      </c>
-      <c r="AA5" s="26">
-        <f>IFERROR(Z5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4442142400112575E-4</v>
-      </c>
-      <c r="AB5" s="26">
-        <f>IFERROR(AA5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4463729440392411E-4</v>
-      </c>
-      <c r="AC5" s="26">
-        <f>IFERROR(AB5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4485335546116691E-4</v>
-      </c>
-      <c r="AD5" s="26">
-        <f>IFERROR(AC5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4506960734123817E-4</v>
-      </c>
-      <c r="AE5" s="26">
-        <f>IFERROR(AD5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4528605021267055E-4</v>
-      </c>
-      <c r="AF5" s="26">
-        <f>IFERROR(AE5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.4550268424414559E-4</v>
-      </c>
-      <c r="AG5" s="26"/>
-    </row>
-    <row r="6" spans="1:33">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="26">
-        <f>IFERROR(INDEX('SYFAFE psgr'!$B$2:$H$2,,MATCH($A6,'SYFAFE psgr'!$B$1:$H$1,0))*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.8463075244527788E-4</v>
-      </c>
-      <c r="C6" s="26">
-        <f>IFERROR(B6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.8523405086548348E-4</v>
-      </c>
-      <c r="D6" s="26">
-        <f>IFERROR(C6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.8583932062025282E-4</v>
-      </c>
-      <c r="E6" s="26">
-        <f>IFERROR(D6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.8644656815110775E-4</v>
-      </c>
-      <c r="F6" s="26">
-        <f>IFERROR(E6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.8705579992061842E-4</v>
-      </c>
-      <c r="G6" s="26">
-        <f>IFERROR(F6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.87667022412472E-4</v>
-      </c>
-      <c r="H6" s="26">
-        <f>IFERROR(G6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.8828024213154177E-4</v>
-      </c>
-      <c r="I6" s="26">
-        <f>IFERROR(H6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.8889546560395628E-4</v>
-      </c>
-      <c r="J6" s="26">
-        <f>IFERROR(I6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.8951269937716883E-4</v>
-      </c>
-      <c r="K6" s="26">
-        <f>IFERROR(J6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.9013195002002712E-4</v>
-      </c>
-      <c r="L6" s="26">
-        <f>IFERROR(K6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.9075322412284319E-4</v>
-      </c>
-      <c r="M6" s="26">
-        <f>IFERROR(L6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.9137652829746355E-4</v>
-      </c>
-      <c r="N6" s="26">
-        <f>IFERROR(M6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.9200186917733952E-4</v>
-      </c>
-      <c r="O6" s="26">
-        <f>IFERROR(N6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.926292534175979E-4</v>
-      </c>
-      <c r="P6" s="26">
-        <f>IFERROR(O6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.9325868769511171E-4</v>
-      </c>
-      <c r="Q6" s="26">
-        <f>IFERROR(P6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.9389017870857127E-4</v>
-      </c>
-      <c r="R6" s="26">
-        <f>IFERROR(Q6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.9452373317855554E-4</v>
-      </c>
-      <c r="S6" s="26">
-        <f>IFERROR(R6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.9515935784760358E-4</v>
-      </c>
-      <c r="T6" s="26">
-        <f>IFERROR(S6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.9579705948028633E-4</v>
-      </c>
-      <c r="U6" s="26">
-        <f>IFERROR(T6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.9643684486327865E-4</v>
-      </c>
-      <c r="V6" s="26">
-        <f>IFERROR(U6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.9707872080543143E-4</v>
-      </c>
-      <c r="W6" s="26">
-        <f>IFERROR(V6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.9772269413784418E-4</v>
-      </c>
-      <c r="X6" s="26">
-        <f>IFERROR(W6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.9836877171393766E-4</v>
-      </c>
-      <c r="Y6" s="26">
-        <f>IFERROR(X6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.990169604095268E-4</v>
-      </c>
-      <c r="Z6" s="26">
-        <f>IFERROR(Y6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>1.9966726712289392E-4</v>
-      </c>
-      <c r="AA6" s="26">
-        <f>IFERROR(Z6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.0031969877486218E-4</v>
-      </c>
-      <c r="AB6" s="26">
-        <f>IFERROR(AA6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.009742623088691E-4</v>
-      </c>
-      <c r="AC6" s="26">
-        <f>IFERROR(AB6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.016309646910406E-4</v>
-      </c>
-      <c r="AD6" s="26">
-        <f>IFERROR(AC6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.0228981291026504E-4</v>
-      </c>
-      <c r="AE6" s="26">
-        <f>IFERROR(AD6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.0295081397826763E-4</v>
-      </c>
-      <c r="AF6" s="26">
-        <f>IFERROR(AE6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.0361397492968508E-4</v>
-      </c>
-      <c r="AG6" s="26"/>
-    </row>
-    <row r="7" spans="1:33">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="26">
-        <f>IFERROR(INDEX('SYFAFE psgr'!$B$2:$H$2,,MATCH($A7,'SYFAFE psgr'!$B$1:$H$1,0))*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.7020538843658637E-4</v>
-      </c>
-      <c r="C7" s="26">
-        <f>IFERROR(B7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.7077847640844411E-4</v>
-      </c>
-      <c r="D7" s="26">
-        <f>IFERROR(C7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.7135277986244078E-4</v>
-      </c>
-      <c r="E7" s="26">
-        <f>IFERROR(D7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.7192830137653457E-4</v>
-      </c>
-      <c r="F7" s="26">
-        <f>IFERROR(E7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.7250504353415136E-4</v>
-      </c>
-      <c r="G7" s="26">
-        <f>IFERROR(F7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.7308300892419632E-4</v>
-      </c>
-      <c r="H7" s="26">
-        <f>IFERROR(G7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.7366220014106543E-4</v>
-      </c>
-      <c r="I7" s="26">
-        <f>IFERROR(H7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.7424261978465736E-4</v>
-      </c>
-      <c r="J7" s="26">
-        <f>IFERROR(I7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.7482427046038484E-4</v>
-      </c>
-      <c r="K7" s="26">
-        <f>IFERROR(J7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.7540715477918662E-4</v>
-      </c>
-      <c r="L7" s="26">
-        <f>IFERROR(K7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.7599127535753902E-4</v>
-      </c>
-      <c r="M7" s="26">
-        <f>IFERROR(L7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.765766348174678E-4</v>
-      </c>
-      <c r="N7" s="26">
-        <f>IFERROR(M7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.7716323578655979E-4</v>
-      </c>
-      <c r="O7" s="26">
-        <f>IFERROR(N7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.7775108089797486E-4</v>
-      </c>
-      <c r="P7" s="26">
-        <f>IFERROR(O7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.7834017279045753E-4</v>
-      </c>
-      <c r="Q7" s="26">
-        <f>IFERROR(P7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.7893051410834898E-4</v>
-      </c>
-      <c r="R7" s="26">
-        <f>IFERROR(Q7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.7952210750159886E-4</v>
-      </c>
-      <c r="S7" s="26">
-        <f>IFERROR(R7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.8011495562577717E-4</v>
-      </c>
-      <c r="T7" s="26">
-        <f>IFERROR(S7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.8070906114208621E-4</v>
-      </c>
-      <c r="U7" s="26">
-        <f>IFERROR(T7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.8130442671737255E-4</v>
-      </c>
-      <c r="V7" s="26">
-        <f>IFERROR(U7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.8190105502413893E-4</v>
-      </c>
-      <c r="W7" s="26">
-        <f>IFERROR(V7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.8249894874055628E-4</v>
-      </c>
-      <c r="X7" s="26">
-        <f>IFERROR(W7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.830981105504758E-4</v>
-      </c>
-      <c r="Y7" s="26">
-        <f>IFERROR(X7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.8369854314344096E-4</v>
-      </c>
-      <c r="Z7" s="26">
-        <f>IFERROR(Y7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.8430024921469952E-4</v>
-      </c>
-      <c r="AA7" s="26">
-        <f>IFERROR(Z7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.8490323146521579E-4</v>
-      </c>
-      <c r="AB7" s="26">
-        <f>IFERROR(AA7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.8550749260168248E-4</v>
-      </c>
-      <c r="AC7" s="26">
-        <f>IFERROR(AB7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.8611303533653318E-4</v>
-      </c>
-      <c r="AD7" s="26">
-        <f>IFERROR(AC7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.8671986238795435E-4</v>
-      </c>
-      <c r="AE7" s="26">
-        <f>IFERROR(AD7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.8732797647989747E-4</v>
-      </c>
-      <c r="AF7" s="26">
-        <f>IFERROR(AE7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.8793738034209136E-4</v>
-      </c>
-      <c r="AG7" s="26"/>
-    </row>
-    <row r="8" spans="1:33">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="26">
-        <f>IFERROR(INDEX('SYFAFE psgr'!$B$2:$H$2,,MATCH($A8,'SYFAFE psgr'!$B$1:$H$1,0))*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.2108633710996183E-4</v>
-      </c>
-      <c r="C8" s="26">
-        <f>IFERROR(B8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.2094440461839425E-4</v>
-      </c>
-      <c r="D8" s="26">
-        <f>IFERROR(C8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.2080256324431691E-4</v>
-      </c>
-      <c r="E8" s="26">
-        <f>IFERROR(D8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.2066081292923442E-4</v>
-      </c>
-      <c r="F8" s="26">
-        <f>IFERROR(E8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.2051915361468892E-4</v>
-      </c>
-      <c r="G8" s="26">
-        <f>IFERROR(F8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.2037758524226012E-4</v>
-      </c>
-      <c r="H8" s="26">
-        <f>IFERROR(G8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.202361077535652E-4</v>
-      </c>
-      <c r="I8" s="26">
-        <f>IFERROR(H8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.2009472109025882E-4</v>
-      </c>
-      <c r="J8" s="26">
-        <f>IFERROR(I8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.1995342519403311E-4</v>
-      </c>
-      <c r="K8" s="26">
-        <f>IFERROR(J8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.1981222000661766E-4</v>
-      </c>
-      <c r="L8" s="26">
-        <f>IFERROR(K8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.1967110546977943E-4</v>
-      </c>
-      <c r="M8" s="26">
-        <f>IFERROR(L8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.1953008152532274E-4</v>
-      </c>
-      <c r="N8" s="26">
-        <f>IFERROR(M8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.1938914811508935E-4</v>
-      </c>
-      <c r="O8" s="26">
-        <f>IFERROR(N8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.1924830518095826E-4</v>
-      </c>
-      <c r="P8" s="26">
-        <f>IFERROR(O8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.1910755266484587E-4</v>
-      </c>
-      <c r="Q8" s="26">
-        <f>IFERROR(P8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.1896689050870583E-4</v>
-      </c>
-      <c r="R8" s="26">
-        <f>IFERROR(Q8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.1882631865452904E-4</v>
-      </c>
-      <c r="S8" s="26">
-        <f>IFERROR(R8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.1868583704434365E-4</v>
-      </c>
-      <c r="T8" s="26">
-        <f>IFERROR(S8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.1854544562021505E-4</v>
-      </c>
-      <c r="U8" s="26">
-        <f>IFERROR(T8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.184051443242458E-4</v>
-      </c>
-      <c r="V8" s="26">
-        <f>IFERROR(U8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.1826493309857564E-4</v>
-      </c>
-      <c r="W8" s="26">
-        <f>IFERROR(V8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.1812481188538145E-4</v>
-      </c>
-      <c r="X8" s="26">
-        <f>IFERROR(W8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.1798478062687722E-4</v>
-      </c>
-      <c r="Y8" s="26">
-        <f>IFERROR(X8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.1784483926531406E-4</v>
-      </c>
-      <c r="Z8" s="26">
-        <f>IFERROR(Y8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.1770498774298014E-4</v>
-      </c>
-      <c r="AA8" s="26">
-        <f>IFERROR(Z8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.1756522600220067E-4</v>
-      </c>
-      <c r="AB8" s="26">
-        <f>IFERROR(AA8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.174255539853379E-4</v>
-      </c>
-      <c r="AC8" s="26">
-        <f>IFERROR(AB8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.1728597163479108E-4</v>
-      </c>
-      <c r="AD8" s="26">
-        <f>IFERROR(AC8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.1714647889299642E-4</v>
-      </c>
-      <c r="AE8" s="26">
-        <f>IFERROR(AD8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.1700707570242715E-4</v>
-      </c>
-      <c r="AF8" s="26">
-        <f>IFERROR(AE8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
-        <v>2.1686776200559332E-4</v>
-      </c>
-      <c r="AG8" s="26"/>
-    </row>
-  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8545,22 +8872,22 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45">
+    <row r="1" spans="1:8" ht="43.5">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -8643,7 +8970,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="5">
-        <v>2.05659800129969E-2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -8661,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>1.9199759432628197E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -8687,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="5">
-        <v>1.6588237628957749E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -8695,7 +9022,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="5">
-        <v>1.02207161101318E-3</v>
+        <v>0</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -8713,7 +9040,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="5">
-        <v>9.5417427430983083E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -8721,7 +9048,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="5">
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
@@ -8739,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="5">
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -8752,6 +9079,1038 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78970FD1-7C00-4B50-9A91-90B80228BA27}">
+  <sheetPr>
+    <tabColor rgb="FF1F497D"/>
+  </sheetPr>
+  <dimension ref="A1:AG8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" customWidth="1"/>
+    <col min="4" max="33" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="A1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26">
+        <f>IFERROR(INDEX('SYFAFE psgr'!$B$2:$H$2,,MATCH($A2,'SYFAFE psgr'!$B$1:$H$1,0))*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>3.0350918316418964E-4</v>
+      </c>
+      <c r="C2" s="26">
+        <f>IFERROR(B2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>3.0305207372962099E-4</v>
+      </c>
+      <c r="D2" s="26">
+        <f>IFERROR(C2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>3.0259565273891751E-4</v>
+      </c>
+      <c r="E2" s="26">
+        <f>IFERROR(D2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>3.0213991915522691E-4</v>
+      </c>
+      <c r="F2" s="26">
+        <f>IFERROR(E2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>3.0168487194325852E-4</v>
+      </c>
+      <c r="G2" s="26">
+        <f>IFERROR(F2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>3.0123051006928091E-4</v>
+      </c>
+      <c r="H2" s="26">
+        <f>IFERROR(G2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>3.0077683250111947E-4</v>
+      </c>
+      <c r="I2" s="26">
+        <f>IFERROR(H2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>3.0032383820815416E-4</v>
+      </c>
+      <c r="J2" s="26">
+        <f>IFERROR(I2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.9987152616131716E-4</v>
+      </c>
+      <c r="K2" s="26">
+        <f>IFERROR(J2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.9941989533309053E-4</v>
+      </c>
+      <c r="L2" s="26">
+        <f>IFERROR(K2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.9896894469750375E-4</v>
+      </c>
+      <c r="M2" s="26">
+        <f>IFERROR(L2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.9851867323013159E-4</v>
+      </c>
+      <c r="N2" s="26">
+        <f>IFERROR(M2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.9806907990809168E-4</v>
+      </c>
+      <c r="O2" s="26">
+        <f>IFERROR(N2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.9762016371004217E-4</v>
+      </c>
+      <c r="P2" s="26">
+        <f>IFERROR(O2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.9717192361617941E-4</v>
+      </c>
+      <c r="Q2" s="26">
+        <f>IFERROR(P2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.9672435860823572E-4</v>
+      </c>
+      <c r="R2" s="26">
+        <f>IFERROR(Q2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.9627746766947694E-4</v>
+      </c>
+      <c r="S2" s="26">
+        <f>IFERROR(R2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.9583124978470023E-4</v>
+      </c>
+      <c r="T2" s="26">
+        <f>IFERROR(S2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.9538570394023179E-4</v>
+      </c>
+      <c r="U2" s="26">
+        <f>IFERROR(T2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.949408291239244E-4</v>
+      </c>
+      <c r="V2" s="26">
+        <f>IFERROR(U2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.9449662432515521E-4</v>
+      </c>
+      <c r="W2" s="26">
+        <f>IFERROR(V2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.9405308853482353E-4</v>
+      </c>
+      <c r="X2" s="26">
+        <f>IFERROR(W2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.9361022074534841E-4</v>
+      </c>
+      <c r="Y2" s="26">
+        <f>IFERROR(X2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.9316801995066645E-4</v>
+      </c>
+      <c r="Z2" s="26">
+        <f>IFERROR(Y2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.9272648514622939E-4</v>
+      </c>
+      <c r="AA2" s="26">
+        <f>IFERROR(Z2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.9228561532900187E-4</v>
+      </c>
+      <c r="AB2" s="26">
+        <f>IFERROR(AA2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.9184540949745932E-4</v>
+      </c>
+      <c r="AC2" s="26">
+        <f>IFERROR(AB2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.9140586665158546E-4</v>
+      </c>
+      <c r="AD2" s="26">
+        <f>IFERROR(AC2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.9096698579287011E-4</v>
+      </c>
+      <c r="AE2" s="26">
+        <f>IFERROR(AD2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.9052876592430696E-4</v>
+      </c>
+      <c r="AF2" s="26">
+        <f>IFERROR(AE2*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A2,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.9009120605039124E-4</v>
+      </c>
+      <c r="AG2" s="26"/>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26">
+        <f>IFERROR(INDEX('SYFAFE psgr'!$B$2:$H$2,,MATCH($A3,'SYFAFE psgr'!$B$1:$H$1,0))*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4017302249301569E-4</v>
+      </c>
+      <c r="C3" s="26">
+        <f>IFERROR(B3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.407755396203476E-4</v>
+      </c>
+      <c r="D3" s="26">
+        <f>IFERROR(C3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4137956827001853E-4</v>
+      </c>
+      <c r="E3" s="26">
+        <f>IFERROR(D3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4198511223395353E-4</v>
+      </c>
+      <c r="F3" s="26">
+        <f>IFERROR(E3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4259217531359036E-4</v>
+      </c>
+      <c r="G3" s="26">
+        <f>IFERROR(F3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4320076131990336E-4</v>
+      </c>
+      <c r="H3" s="26">
+        <f>IFERROR(G3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4381087407342739E-4</v>
+      </c>
+      <c r="I3" s="26">
+        <f>IFERROR(H3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4442251740428185E-4</v>
+      </c>
+      <c r="J3" s="26">
+        <f>IFERROR(I3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.450356951521946E-4</v>
+      </c>
+      <c r="K3" s="26">
+        <f>IFERROR(J3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4565041116652621E-4</v>
+      </c>
+      <c r="L3" s="26">
+        <f>IFERROR(K3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4626666930629401E-4</v>
+      </c>
+      <c r="M3" s="26">
+        <f>IFERROR(L3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4688447344019645E-4</v>
+      </c>
+      <c r="N3" s="26">
+        <f>IFERROR(M3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4750382744663724E-4</v>
+      </c>
+      <c r="O3" s="26">
+        <f>IFERROR(N3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4812473521374976E-4</v>
+      </c>
+      <c r="P3" s="26">
+        <f>IFERROR(O3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4874720063942148E-4</v>
+      </c>
+      <c r="Q3" s="26">
+        <f>IFERROR(P3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4937122763131844E-4</v>
+      </c>
+      <c r="R3" s="26">
+        <f>IFERROR(Q3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4999682010690979E-4</v>
+      </c>
+      <c r="S3" s="26">
+        <f>IFERROR(R3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.5062398199349222E-4</v>
+      </c>
+      <c r="T3" s="26">
+        <f>IFERROR(S3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.512527172282149E-4</v>
+      </c>
+      <c r="U3" s="26">
+        <f>IFERROR(T3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.5188302975810402E-4</v>
+      </c>
+      <c r="V3" s="26">
+        <f>IFERROR(U3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.5251492354008752E-4</v>
+      </c>
+      <c r="W3" s="26">
+        <f>IFERROR(V3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.5314840254102002E-4</v>
+      </c>
+      <c r="X3" s="26">
+        <f>IFERROR(W3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.5378347073770776E-4</v>
+      </c>
+      <c r="Y3" s="26">
+        <f>IFERROR(X3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.5442013211693343E-4</v>
+      </c>
+      <c r="Z3" s="26">
+        <f>IFERROR(Y3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.550583906754814E-4</v>
+      </c>
+      <c r="AA3" s="26">
+        <f>IFERROR(Z3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.5569825042016258E-4</v>
+      </c>
+      <c r="AB3" s="26">
+        <f>IFERROR(AA3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.5633971536783979E-4</v>
+      </c>
+      <c r="AC3" s="26">
+        <f>IFERROR(AB3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.5698278954545273E-4</v>
+      </c>
+      <c r="AD3" s="26">
+        <f>IFERROR(AC3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.5762747699004351E-4</v>
+      </c>
+      <c r="AE3" s="26">
+        <f>IFERROR(AD3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.5827378174878186E-4</v>
+      </c>
+      <c r="AF3" s="26">
+        <f>IFERROR(AE3*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A3,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.5892170787899057E-4</v>
+      </c>
+      <c r="AG3" s="26"/>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(B1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.1258144607464772E-4</v>
+      </c>
+      <c r="C4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(C1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.309809855528363E-4</v>
+      </c>
+      <c r="D4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(D1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.4095840549423088E-4</v>
+      </c>
+      <c r="E4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(E1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.4757498117812074E-4</v>
+      </c>
+      <c r="F4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(F1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.5245276190178997E-4</v>
+      </c>
+      <c r="G4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(G1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.5805147308180968E-4</v>
+      </c>
+      <c r="H4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(H1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.6331614110045978E-4</v>
+      </c>
+      <c r="I4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(I1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.6403950604657944E-4</v>
+      </c>
+      <c r="J4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(J1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.6415321895375895E-4</v>
+      </c>
+      <c r="K4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(K1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.6421110078480011E-4</v>
+      </c>
+      <c r="L4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(L1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.6559683240296071E-4</v>
+      </c>
+      <c r="M4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(M1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.6567125328846519E-4</v>
+      </c>
+      <c r="N4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(N1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.657293148804576E-4</v>
+      </c>
+      <c r="O4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(O1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.6574057847750289E-4</v>
+      </c>
+      <c r="P4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(P1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.6606718212861998E-4</v>
+      </c>
+      <c r="Q4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(Q1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.6537835224444082E-4</v>
+      </c>
+      <c r="R4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(R1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.6468173765125717E-4</v>
+      </c>
+      <c r="S4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(S1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.6431121232074482E-4</v>
+      </c>
+      <c r="T4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(T1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.6418127111011707E-4</v>
+      </c>
+      <c r="U4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(U1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.6358481580279858E-4</v>
+      </c>
+      <c r="V4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(V1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.6320681692935122E-4</v>
+      </c>
+      <c r="W4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(W1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.6296644030998664E-4</v>
+      </c>
+      <c r="X4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(X1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.6258631756794287E-4</v>
+      </c>
+      <c r="Y4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(Y1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.6226915323269943E-4</v>
+      </c>
+      <c r="Z4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(Z1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.6212543914436618E-4</v>
+      </c>
+      <c r="AA4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(AA1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.6213126411390349E-4</v>
+      </c>
+      <c r="AB4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(AB1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.6186703376843506E-4</v>
+      </c>
+      <c r="AC4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(AC1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.6167835931675628E-4</v>
+      </c>
+      <c r="AD4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(AD1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.6134511220878435E-4</v>
+      </c>
+      <c r="AE4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(AE1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.6127096566251891E-4</v>
+      </c>
+      <c r="AF4" s="47">
+        <f>'SK_fuel econ'!$C$26*INDEX('SK_fuel econ'!$C$40:$AG$40,MATCH(AF1,'SK_fuel econ'!$C$39:$AG$39,0))</f>
+        <v>5.6121764728764344E-4</v>
+      </c>
+      <c r="AG4" s="26"/>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26">
+        <f>IFERROR(INDEX('SYFAFE psgr'!$B$2:$H$2,,MATCH($A5,'SYFAFE psgr'!$B$1:$H$1,0))*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.3908613713188558E-4</v>
+      </c>
+      <c r="C5" s="26">
+        <f>IFERROR(B5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.3929729546604998E-4</v>
+      </c>
+      <c r="D5" s="26">
+        <f>IFERROR(C5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.3950864029300989E-4</v>
+      </c>
+      <c r="E5" s="26">
+        <f>IFERROR(D5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.397201717774738E-4</v>
+      </c>
+      <c r="F5" s="26">
+        <f>IFERROR(E5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.3993189008429563E-4</v>
+      </c>
+      <c r="G5" s="26">
+        <f>IFERROR(F5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.401437953784749E-4</v>
+      </c>
+      <c r="H5" s="26">
+        <f>IFERROR(G5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4035588782515683E-4</v>
+      </c>
+      <c r="I5" s="26">
+        <f>IFERROR(H5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4056816758963255E-4</v>
+      </c>
+      <c r="J5" s="26">
+        <f>IFERROR(I5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4078063483733912E-4</v>
+      </c>
+      <c r="K5" s="26">
+        <f>IFERROR(J5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4099328973385974E-4</v>
+      </c>
+      <c r="L5" s="26">
+        <f>IFERROR(K5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4120613244492386E-4</v>
+      </c>
+      <c r="M5" s="26">
+        <f>IFERROR(L5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4141916313640728E-4</v>
+      </c>
+      <c r="N5" s="26">
+        <f>IFERROR(M5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4163238197433232E-4</v>
+      </c>
+      <c r="O5" s="26">
+        <f>IFERROR(N5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4184578912486791E-4</v>
+      </c>
+      <c r="P5" s="26">
+        <f>IFERROR(O5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4205938475432972E-4</v>
+      </c>
+      <c r="Q5" s="26">
+        <f>IFERROR(P5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4227316902918037E-4</v>
+      </c>
+      <c r="R5" s="26">
+        <f>IFERROR(Q5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4248714211602945E-4</v>
+      </c>
+      <c r="S5" s="26">
+        <f>IFERROR(R5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4270130418163369E-4</v>
+      </c>
+      <c r="T5" s="26">
+        <f>IFERROR(S5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4291565539289714E-4</v>
+      </c>
+      <c r="U5" s="26">
+        <f>IFERROR(T5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4313019591687123E-4</v>
+      </c>
+      <c r="V5" s="26">
+        <f>IFERROR(U5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4334492592075494E-4</v>
+      </c>
+      <c r="W5" s="26">
+        <f>IFERROR(V5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4355984557189488E-4</v>
+      </c>
+      <c r="X5" s="26">
+        <f>IFERROR(W5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4377495503778552E-4</v>
+      </c>
+      <c r="Y5" s="26">
+        <f>IFERROR(X5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4399025448606923E-4</v>
+      </c>
+      <c r="Z5" s="26">
+        <f>IFERROR(Y5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4420574408453644E-4</v>
+      </c>
+      <c r="AA5" s="26">
+        <f>IFERROR(Z5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4442142400112575E-4</v>
+      </c>
+      <c r="AB5" s="26">
+        <f>IFERROR(AA5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4463729440392411E-4</v>
+      </c>
+      <c r="AC5" s="26">
+        <f>IFERROR(AB5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4485335546116691E-4</v>
+      </c>
+      <c r="AD5" s="26">
+        <f>IFERROR(AC5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4506960734123817E-4</v>
+      </c>
+      <c r="AE5" s="26">
+        <f>IFERROR(AD5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4528605021267055E-4</v>
+      </c>
+      <c r="AF5" s="26">
+        <f>IFERROR(AE5*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A5,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.4550268424414559E-4</v>
+      </c>
+      <c r="AG5" s="26"/>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="26">
+        <f>IFERROR(INDEX('SYFAFE psgr'!$B$2:$H$2,,MATCH($A6,'SYFAFE psgr'!$B$1:$H$1,0))*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.8463075244527788E-4</v>
+      </c>
+      <c r="C6" s="26">
+        <f>IFERROR(B6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.8523405086548348E-4</v>
+      </c>
+      <c r="D6" s="26">
+        <f>IFERROR(C6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.8583932062025282E-4</v>
+      </c>
+      <c r="E6" s="26">
+        <f>IFERROR(D6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.8644656815110775E-4</v>
+      </c>
+      <c r="F6" s="26">
+        <f>IFERROR(E6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.8705579992061842E-4</v>
+      </c>
+      <c r="G6" s="26">
+        <f>IFERROR(F6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.87667022412472E-4</v>
+      </c>
+      <c r="H6" s="26">
+        <f>IFERROR(G6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.8828024213154177E-4</v>
+      </c>
+      <c r="I6" s="26">
+        <f>IFERROR(H6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.8889546560395628E-4</v>
+      </c>
+      <c r="J6" s="26">
+        <f>IFERROR(I6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.8951269937716883E-4</v>
+      </c>
+      <c r="K6" s="26">
+        <f>IFERROR(J6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.9013195002002712E-4</v>
+      </c>
+      <c r="L6" s="26">
+        <f>IFERROR(K6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.9075322412284319E-4</v>
+      </c>
+      <c r="M6" s="26">
+        <f>IFERROR(L6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.9137652829746355E-4</v>
+      </c>
+      <c r="N6" s="26">
+        <f>IFERROR(M6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.9200186917733952E-4</v>
+      </c>
+      <c r="O6" s="26">
+        <f>IFERROR(N6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.926292534175979E-4</v>
+      </c>
+      <c r="P6" s="26">
+        <f>IFERROR(O6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.9325868769511171E-4</v>
+      </c>
+      <c r="Q6" s="26">
+        <f>IFERROR(P6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.9389017870857127E-4</v>
+      </c>
+      <c r="R6" s="26">
+        <f>IFERROR(Q6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.9452373317855554E-4</v>
+      </c>
+      <c r="S6" s="26">
+        <f>IFERROR(R6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.9515935784760358E-4</v>
+      </c>
+      <c r="T6" s="26">
+        <f>IFERROR(S6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.9579705948028633E-4</v>
+      </c>
+      <c r="U6" s="26">
+        <f>IFERROR(T6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.9643684486327865E-4</v>
+      </c>
+      <c r="V6" s="26">
+        <f>IFERROR(U6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.9707872080543143E-4</v>
+      </c>
+      <c r="W6" s="26">
+        <f>IFERROR(V6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.9772269413784418E-4</v>
+      </c>
+      <c r="X6" s="26">
+        <f>IFERROR(W6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.9836877171393766E-4</v>
+      </c>
+      <c r="Y6" s="26">
+        <f>IFERROR(X6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.990169604095268E-4</v>
+      </c>
+      <c r="Z6" s="26">
+        <f>IFERROR(Y6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>1.9966726712289392E-4</v>
+      </c>
+      <c r="AA6" s="26">
+        <f>IFERROR(Z6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.0031969877486218E-4</v>
+      </c>
+      <c r="AB6" s="26">
+        <f>IFERROR(AA6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.009742623088691E-4</v>
+      </c>
+      <c r="AC6" s="26">
+        <f>IFERROR(AB6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.016309646910406E-4</v>
+      </c>
+      <c r="AD6" s="26">
+        <f>IFERROR(AC6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.0228981291026504E-4</v>
+      </c>
+      <c r="AE6" s="26">
+        <f>IFERROR(AD6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.0295081397826763E-4</v>
+      </c>
+      <c r="AF6" s="26">
+        <f>IFERROR(AE6*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A6,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.0361397492968508E-4</v>
+      </c>
+      <c r="AG6" s="26"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26">
+        <f>IFERROR(INDEX('SYFAFE psgr'!$B$2:$H$2,,MATCH($A7,'SYFAFE psgr'!$B$1:$H$1,0))*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.7020538843658637E-4</v>
+      </c>
+      <c r="C7" s="26">
+        <f>IFERROR(B7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.7077847640844411E-4</v>
+      </c>
+      <c r="D7" s="26">
+        <f>IFERROR(C7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.7135277986244078E-4</v>
+      </c>
+      <c r="E7" s="26">
+        <f>IFERROR(D7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.7192830137653457E-4</v>
+      </c>
+      <c r="F7" s="26">
+        <f>IFERROR(E7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.7250504353415136E-4</v>
+      </c>
+      <c r="G7" s="26">
+        <f>IFERROR(F7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.7308300892419632E-4</v>
+      </c>
+      <c r="H7" s="26">
+        <f>IFERROR(G7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.7366220014106543E-4</v>
+      </c>
+      <c r="I7" s="26">
+        <f>IFERROR(H7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.7424261978465736E-4</v>
+      </c>
+      <c r="J7" s="26">
+        <f>IFERROR(I7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.7482427046038484E-4</v>
+      </c>
+      <c r="K7" s="26">
+        <f>IFERROR(J7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.7540715477918662E-4</v>
+      </c>
+      <c r="L7" s="26">
+        <f>IFERROR(K7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.7599127535753902E-4</v>
+      </c>
+      <c r="M7" s="26">
+        <f>IFERROR(L7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.765766348174678E-4</v>
+      </c>
+      <c r="N7" s="26">
+        <f>IFERROR(M7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.7716323578655979E-4</v>
+      </c>
+      <c r="O7" s="26">
+        <f>IFERROR(N7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.7775108089797486E-4</v>
+      </c>
+      <c r="P7" s="26">
+        <f>IFERROR(O7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.7834017279045753E-4</v>
+      </c>
+      <c r="Q7" s="26">
+        <f>IFERROR(P7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.7893051410834898E-4</v>
+      </c>
+      <c r="R7" s="26">
+        <f>IFERROR(Q7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.7952210750159886E-4</v>
+      </c>
+      <c r="S7" s="26">
+        <f>IFERROR(R7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.8011495562577717E-4</v>
+      </c>
+      <c r="T7" s="26">
+        <f>IFERROR(S7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.8070906114208621E-4</v>
+      </c>
+      <c r="U7" s="26">
+        <f>IFERROR(T7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.8130442671737255E-4</v>
+      </c>
+      <c r="V7" s="26">
+        <f>IFERROR(U7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.8190105502413893E-4</v>
+      </c>
+      <c r="W7" s="26">
+        <f>IFERROR(V7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.8249894874055628E-4</v>
+      </c>
+      <c r="X7" s="26">
+        <f>IFERROR(W7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.830981105504758E-4</v>
+      </c>
+      <c r="Y7" s="26">
+        <f>IFERROR(X7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.8369854314344096E-4</v>
+      </c>
+      <c r="Z7" s="26">
+        <f>IFERROR(Y7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.8430024921469952E-4</v>
+      </c>
+      <c r="AA7" s="26">
+        <f>IFERROR(Z7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.8490323146521579E-4</v>
+      </c>
+      <c r="AB7" s="26">
+        <f>IFERROR(AA7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.8550749260168248E-4</v>
+      </c>
+      <c r="AC7" s="26">
+        <f>IFERROR(AB7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.8611303533653318E-4</v>
+      </c>
+      <c r="AD7" s="26">
+        <f>IFERROR(AC7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.8671986238795435E-4</v>
+      </c>
+      <c r="AE7" s="26">
+        <f>IFERROR(AD7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.8732797647989747E-4</v>
+      </c>
+      <c r="AF7" s="26">
+        <f>IFERROR(AE7*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A7,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.8793738034209136E-4</v>
+      </c>
+      <c r="AG7" s="26"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="26">
+        <f>IFERROR(INDEX('SYFAFE psgr'!$B$2:$H$2,,MATCH($A8,'SYFAFE psgr'!$B$1:$H$1,0))*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.2108633710996183E-4</v>
+      </c>
+      <c r="C8" s="26">
+        <f>IFERROR(B8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.2094440461839425E-4</v>
+      </c>
+      <c r="D8" s="26">
+        <f>IFERROR(C8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.2080256324431691E-4</v>
+      </c>
+      <c r="E8" s="26">
+        <f>IFERROR(D8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.2066081292923442E-4</v>
+      </c>
+      <c r="F8" s="26">
+        <f>IFERROR(E8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.2051915361468892E-4</v>
+      </c>
+      <c r="G8" s="26">
+        <f>IFERROR(F8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.2037758524226012E-4</v>
+      </c>
+      <c r="H8" s="26">
+        <f>IFERROR(G8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.202361077535652E-4</v>
+      </c>
+      <c r="I8" s="26">
+        <f>IFERROR(H8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.2009472109025882E-4</v>
+      </c>
+      <c r="J8" s="26">
+        <f>IFERROR(I8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.1995342519403311E-4</v>
+      </c>
+      <c r="K8" s="26">
+        <f>IFERROR(J8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.1981222000661766E-4</v>
+      </c>
+      <c r="L8" s="26">
+        <f>IFERROR(K8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.1967110546977943E-4</v>
+      </c>
+      <c r="M8" s="26">
+        <f>IFERROR(L8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.1953008152532274E-4</v>
+      </c>
+      <c r="N8" s="26">
+        <f>IFERROR(M8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.1938914811508935E-4</v>
+      </c>
+      <c r="O8" s="26">
+        <f>IFERROR(N8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.1924830518095826E-4</v>
+      </c>
+      <c r="P8" s="26">
+        <f>IFERROR(O8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.1910755266484587E-4</v>
+      </c>
+      <c r="Q8" s="26">
+        <f>IFERROR(P8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.1896689050870583E-4</v>
+      </c>
+      <c r="R8" s="26">
+        <f>IFERROR(Q8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.1882631865452904E-4</v>
+      </c>
+      <c r="S8" s="26">
+        <f>IFERROR(R8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.1868583704434365E-4</v>
+      </c>
+      <c r="T8" s="26">
+        <f>IFERROR(S8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.1854544562021505E-4</v>
+      </c>
+      <c r="U8" s="26">
+        <f>IFERROR(T8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.184051443242458E-4</v>
+      </c>
+      <c r="V8" s="26">
+        <f>IFERROR(U8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.1826493309857564E-4</v>
+      </c>
+      <c r="W8" s="26">
+        <f>IFERROR(V8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.1812481188538145E-4</v>
+      </c>
+      <c r="X8" s="26">
+        <f>IFERROR(W8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.1798478062687722E-4</v>
+      </c>
+      <c r="Y8" s="26">
+        <f>IFERROR(X8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.1784483926531406E-4</v>
+      </c>
+      <c r="Z8" s="26">
+        <f>IFERROR(Y8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.1770498774298014E-4</v>
+      </c>
+      <c r="AA8" s="26">
+        <f>IFERROR(Z8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.1756522600220067E-4</v>
+      </c>
+      <c r="AB8" s="26">
+        <f>IFERROR(AA8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.174255539853379E-4</v>
+      </c>
+      <c r="AC8" s="26">
+        <f>IFERROR(AB8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.1728597163479108E-4</v>
+      </c>
+      <c r="AD8" s="26">
+        <f>IFERROR(AC8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.1714647889299642E-4</v>
+      </c>
+      <c r="AE8" s="26">
+        <f>IFERROR(AD8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.1700707570242715E-4</v>
+      </c>
+      <c r="AF8" s="26">
+        <f>IFERROR(AE8*(1+INDEX(CAGR!$C$2:$C$8,MATCH($A8,CAGR!$B$2:$B$8,0))),0)</f>
+        <v>2.1686776200559332E-4</v>
+      </c>
+      <c r="AG8" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C66C3DC-AC34-4050-8F3C-9ED62912A698}">
   <sheetPr>
     <tabColor rgb="FF1F497D"/>
@@ -8762,11 +10121,11 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="4" max="33" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="33" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -9783,7 +11142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F519C5-19A5-4B14-84C5-13CDDB297E8D}">
   <sheetPr>
     <tabColor rgb="FF1F497D"/>
@@ -9794,11 +11153,11 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="4" max="33" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="33" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -10815,7 +12174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40527949-0190-4A7F-B2B4-C3DC0F9CD3E5}">
   <sheetPr>
     <tabColor rgb="FF1F497D"/>
@@ -10826,11 +12185,11 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="4" max="33" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="33" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -11847,7 +13206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A02C3C7-AA0C-4A82-B7C4-68B2E4B4CB1A}">
   <sheetPr>
     <tabColor rgb="FF1F497D"/>
@@ -11858,11 +13217,11 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="4" max="33" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="33" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -12879,7 +14238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55775438-07F5-4CA8-B024-425F0232725E}">
   <sheetPr>
     <tabColor rgb="FF1F497D"/>
@@ -12888,11 +14247,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="4" max="33" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="33" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -13909,7 +15268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C194DA6F-E696-40E1-A10D-288DB42265DE}">
   <sheetPr>
     <tabColor rgb="FF1F497D"/>
@@ -13920,11 +15279,11 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="4" max="33" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="33" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -14941,7 +16300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809154C0-0C37-417F-BDAF-821D86C49073}">
   <sheetPr>
     <tabColor rgb="FF1F497D"/>
@@ -14952,10 +16311,10 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="32" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="32" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -15965,7 +17324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E69B2A-5EC5-464D-AF74-0A66B9AD00B7}">
   <sheetPr>
     <tabColor rgb="FF1F497D"/>
@@ -15974,9 +17333,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -16986,7 +18345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDB12DF-67C7-4533-9DF8-C884909DBE9D}">
   <sheetPr>
     <tabColor rgb="FF1F497D"/>
@@ -16997,9 +18356,9 @@
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -18001,1025 +19360,6 @@
       <c r="AF8" s="21">
         <f>AE8*(1+CAGR!$C$71)</f>
         <v>1.0756142355762898E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0546ACD-ADD5-4C5E-8F52-5577E5CAE016}">
-  <sheetPr>
-    <tabColor rgb="FF1F497D"/>
-  </sheetPr>
-  <dimension ref="A1:AF8"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2023</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2024</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2025</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2026</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2027</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2028</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2029</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2030</v>
-      </c>
-      <c r="M1" s="1">
-        <v>2031</v>
-      </c>
-      <c r="N1" s="1">
-        <v>2032</v>
-      </c>
-      <c r="O1" s="1">
-        <v>2033</v>
-      </c>
-      <c r="P1" s="1">
-        <v>2034</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>2035</v>
-      </c>
-      <c r="R1" s="1">
-        <v>2036</v>
-      </c>
-      <c r="S1" s="1">
-        <v>2037</v>
-      </c>
-      <c r="T1" s="1">
-        <v>2038</v>
-      </c>
-      <c r="U1" s="1">
-        <v>2039</v>
-      </c>
-      <c r="V1" s="1">
-        <v>2040</v>
-      </c>
-      <c r="W1" s="1">
-        <v>2041</v>
-      </c>
-      <c r="X1" s="1">
-        <v>2042</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>2043</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>2044</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>2045</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>2046</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>2047</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>2048</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>2049</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="21">
-        <f>'SYFAFE psgr'!B7</f>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="C2" s="21">
-        <f>B2</f>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="D2" s="21">
-        <f t="shared" ref="D2:AF8" si="0">C2</f>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="E2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="F2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="G2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="H2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="I2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="J2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="K2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="L2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="M2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="N2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="O2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="P2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="Q2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="R2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="S2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="T2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="U2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="V2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="W2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="X2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="Y2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="Z2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="AA2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="AB2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="AC2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="AD2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="AE2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="AF2" s="21">
-        <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="21">
-        <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E3" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F3" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G3" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H3" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I3" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J3" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M3" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N3" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O3" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P3" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R3" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S3" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T3" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U3" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V3" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W3" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X3" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="33">
-        <f>'SYFAFE psgr'!D7</f>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="C4" s="21">
-        <f t="shared" si="1"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="D4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="E4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="F4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="G4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="H4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="I4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="J4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="K4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="L4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="M4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="N4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="O4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="P4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="Q4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="R4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="S4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="T4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="U4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="V4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="W4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="X4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="Y4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="Z4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="AA4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="AB4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="AC4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="AD4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="AE4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="AF4" s="21">
-        <f t="shared" si="0"/>
-        <v>5.6334750108537641E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <f>'SYFAFE psgr'!H7</f>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="C8" s="21">
-        <f t="shared" si="1"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="D8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="E8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="F8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="G8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="H8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="I8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="J8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="K8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="L8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="M8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="N8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="O8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="P8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="Q8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="R8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="S8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="T8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="U8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="V8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="W8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="X8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="Y8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="Z8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="AA8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="AB8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="AC8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="AD8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="AE8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
-      </c>
-      <c r="AF8" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
       </c>
     </row>
   </sheetData>
@@ -19033,22 +19373,22 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="75">
+    <row r="1" spans="1:8" ht="72.5">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -19097,7 +19437,7 @@
         <v>1.3753680882406556E-4</v>
       </c>
       <c r="H2" s="8">
-        <v>3.2248680460982855E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -19123,7 +19463,7 @@
         <v>1.0609092351245585E-2</v>
       </c>
       <c r="H3" s="8">
-        <v>2.7162025918871339E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -19131,7 +19471,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="8">
-        <v>9.6172518702715024E-2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="8">
         <v>0</v>
@@ -19149,7 +19489,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="8">
-        <v>8.9783672937304965E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -19175,7 +19515,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="8">
-        <v>4.832595180796545E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -19183,7 +19523,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="8">
-        <v>1.1521530229677897E-2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="8">
         <v>0</v>
@@ -19201,7 +19541,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="8">
-        <v>1.0756142355762898E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -19209,7 +19549,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="8">
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
@@ -19227,7 +19567,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -19237,6 +19577,1025 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0546ACD-ADD5-4C5E-8F52-5577E5CAE016}">
+  <sheetPr>
+    <tabColor rgb="FF1F497D"/>
+  </sheetPr>
+  <dimension ref="A1:AF8"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AD15" sqref="AD15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32">
+      <c r="A1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
+        <f>'SYFAFE psgr'!B7</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="21">
+        <f t="shared" ref="D2:AF8" si="0">C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
+        <f t="shared" ref="C3:R8" si="1">B3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33">
+        <f>'SYFAFE psgr'!D7</f>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="C4" s="21">
+        <f t="shared" si="1"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="D4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="E4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="G4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="H4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="I4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="J4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="K4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="L4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="M4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="N4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="O4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="P4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="Q4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="R4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="S4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="T4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="U4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="V4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="W4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="X4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="Y4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="Z4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="AA4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="AB4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="AC4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="AD4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="AE4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="AF4" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6334750108537641E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f>'SYFAFE psgr'!H7</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3440A9E5-F65D-4793-825C-485F0A205F8F}">
   <sheetPr>
     <tabColor rgb="FF1F497D"/>
@@ -19247,9 +20606,9 @@
       <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -19356,127 +20715,127 @@
       </c>
       <c r="B2" s="21">
         <f>'SYFAFE frgt'!B7</f>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="21">
         <f>B2</f>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="D2" s="21">
         <f t="shared" ref="D2:AF8" si="0">C2</f>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="E2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="F2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="H2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="I2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="J2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="K2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="L2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="M2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="N2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="O2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="P2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="R2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="S2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="T2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="U2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="V2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="W2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="X2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="21">
         <f t="shared" si="0"/>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -20130,127 +21489,127 @@
       </c>
       <c r="B8" s="22">
         <f>'SYFAFE frgt'!H7</f>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="C8" s="22">
         <f t="shared" si="1"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="E8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="F8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="G8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="H8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="I8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="J8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="K8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="L8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="M8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="N8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="O8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="P8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="R8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="S8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="T8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="U8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="V8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="W8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="X8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="22">
         <f t="shared" si="0"/>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -20267,9 +21626,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -21068,9 +22427,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -21869,9 +23228,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -22670,9 +24029,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -23473,9 +24832,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -24274,9 +25633,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
